--- a/test/expect/simple5.xlsx
+++ b/test/expect/simple5.xlsx
@@ -30643,7 +30643,7 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="3" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="1" verticalDpi="300"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
